--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="326">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -97,889 +97,904 @@
     <t>0.999+/-0.0</t>
   </si>
   <si>
+    <t>0.802+/-0.0</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.727+/-0.011</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.968+/-0.008</t>
+  </si>
+  <si>
+    <t>0.621</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649+/-0.001</t>
+  </si>
+  <si>
+    <t>0.648+/-0.0</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>0.634+/-0.001</t>
+  </si>
+  <si>
+    <t>0.633+/-0.006</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.706+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.012</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.208+/-0.005</t>
+  </si>
+  <si>
+    <t>0.604+/-0.002</t>
+  </si>
+  <si>
+    <t>0.603+/-0.0</t>
+  </si>
+  <si>
+    <t>0.467</t>
+  </si>
+  <si>
+    <t>0.575+/-0.002</t>
+  </si>
+  <si>
+    <t>0.574+/-0.011</t>
+  </si>
+  <si>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>0.8+/-0.003</t>
+  </si>
+  <si>
+    <t>0.798+/-0.017</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.602+/-0.001</t>
+  </si>
+  <si>
+    <t>0.601+/-0.0</t>
+  </si>
+  <si>
+    <t>0.563</t>
+  </si>
+  <si>
+    <t>0.594+/-0.001</t>
+  </si>
+  <si>
+    <t>0.594+/-0.008</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>0.64+/-0.002</t>
+  </si>
+  <si>
+    <t>0.638+/-0.02</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.809+/-0.008</t>
+  </si>
+  <si>
+    <t>0.748+/-0.0</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.789+/-0.019</t>
+  </si>
+  <si>
+    <t>0.731+/-0.021</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.844+/-0.028</t>
+  </si>
+  <si>
+    <t>0.787+/-0.047</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>4.043+/-1.023</t>
+  </si>
+  <si>
+    <t>0.786+/-0.005</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.756+/-0.01</t>
+  </si>
+  <si>
+    <t>0.711+/-0.017</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.845+/-0.015</t>
+  </si>
+  <si>
+    <t>0.8+/-0.02</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.143+/-0.007</t>
+  </si>
+  <si>
+    <t>0.772+/-0.004</t>
+  </si>
+  <si>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.737+/-0.008</t>
+  </si>
+  <si>
+    <t>0.703+/-0.013</t>
+  </si>
+  <si>
+    <t>0.847+/-0.019</t>
+  </si>
+  <si>
+    <t>0.812+/-0.025</t>
+  </si>
+  <si>
+    <t>0.573</t>
+  </si>
+  <si>
+    <t>0.204+/-0.02</t>
+  </si>
+  <si>
+    <t>0.747+/-0.002</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.728+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.009</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.787+/-0.004</t>
+  </si>
+  <si>
+    <t>0.769+/-0.016</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>33.554+/-2.992</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
+    <t>0.821+/-0.0</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.742+/-0.01</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.987+/-0.005</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.66+/-0.002</t>
+  </si>
+  <si>
+    <t>0.659+/-0.0</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.647+/-0.002</t>
+  </si>
+  <si>
+    <t>0.645+/-0.014</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.705+/-0.02</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.315+/-0.027</t>
+  </si>
+  <si>
+    <t>0.603+/-0.002</t>
+  </si>
+  <si>
+    <t>0.602+/-0.0</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.577+/-0.002</t>
+  </si>
+  <si>
+    <t>0.576+/-0.012</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.774+/-0.007</t>
+  </si>
+  <si>
+    <t>0.773+/-0.016</t>
+  </si>
+  <si>
+    <t>0.746</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.601+/-0.002</t>
+  </si>
+  <si>
+    <t>0.6+/-0.0</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.595+/-0.002</t>
+  </si>
+  <si>
+    <t>0.594+/-0.019</t>
+  </si>
+  <si>
+    <t>0.198</t>
+  </si>
+  <si>
+    <t>0.635+/-0.003</t>
+  </si>
+  <si>
+    <t>0.634+/-0.016</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.839+/-0.009</t>
+  </si>
+  <si>
     <t>0.799+/-0.0</t>
   </si>
   <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.724+/-0.01</t>
-  </si>
-  <si>
-    <t>0.291</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.968+/-0.01</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.646+/-0.001</t>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.81+/-0.01</t>
+  </si>
+  <si>
+    <t>0.77+/-0.012</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>0.887+/-0.026</t>
+  </si>
+  <si>
+    <t>0.855+/-0.03</t>
+  </si>
+  <si>
+    <t>0.559</t>
+  </si>
+  <si>
+    <t>5.346+/-0.984</t>
+  </si>
+  <si>
+    <t>0.816+/-0.003</t>
+  </si>
+  <si>
+    <t>0.773+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.811+/-0.008</t>
+  </si>
+  <si>
+    <t>0.771+/-0.014</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>0.822+/-0.012</t>
+  </si>
+  <si>
+    <t>0.778+/-0.011</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.175+/-0.005</t>
+  </si>
+  <si>
+    <t>0.804+/-0.003</t>
+  </si>
+  <si>
+    <t>0.776+/-0.0</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.767+/-0.012</t>
+  </si>
+  <si>
+    <t>0.743+/-0.009</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.874+/-0.021</t>
+  </si>
+  <si>
+    <t>0.846+/-0.026</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.253+/-0.004</t>
+  </si>
+  <si>
+    <t>0.769+/-0.001</t>
+  </si>
+  <si>
+    <t>0.751+/-0.0</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.751+/-0.002</t>
+  </si>
+  <si>
+    <t>0.732+/-0.008</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.806+/-0.005</t>
+  </si>
+  <si>
+    <t>0.79+/-0.025</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>38.346+/-1.816</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.732+/-0.0</t>
+  </si>
+  <si>
+    <t>0.668+/-0.006</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.923+/-0.01</t>
+  </si>
+  <si>
+    <t>0.002+/-0.001</t>
+  </si>
+  <si>
+    <t>0.581+/-0.002</t>
+  </si>
+  <si>
+    <t>0.58+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.589+/-0.002</t>
+  </si>
+  <si>
+    <t>0.588+/-0.02</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.538+/-0.003</t>
+  </si>
+  <si>
+    <t>0.536+/-0.025</t>
+  </si>
+  <si>
+    <t>0.507</t>
+  </si>
+  <si>
+    <t>0.127+/-0.015</t>
+  </si>
+  <si>
+    <t>0.557+/-0.001</t>
+  </si>
+  <si>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.604+/-0.027</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.332+/-0.002</t>
+  </si>
+  <si>
+    <t>0.33+/-0.012</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.562+/-0.002</t>
+  </si>
+  <si>
+    <t>0.561+/-0.0</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.568+/-0.002</t>
+  </si>
+  <si>
+    <t>0.567+/-0.014</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>0.517+/-0.003</t>
+  </si>
+  <si>
+    <t>0.516+/-0.014</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.721+/-0.009</t>
+  </si>
+  <si>
+    <t>0.652+/-0.0</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.7+/-0.019</t>
+  </si>
+  <si>
+    <t>0.634+/-0.013</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.777+/-0.041</t>
+  </si>
+  <si>
+    <t>0.721+/-0.05</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>4.569+/-0.847</t>
+  </si>
+  <si>
+    <t>0.763+/-0.009</t>
+  </si>
+  <si>
+    <t>0.688+/-0.0</t>
+  </si>
+  <si>
+    <t>0.664</t>
+  </si>
+  <si>
+    <t>0.819+/-0.023</t>
+  </si>
+  <si>
+    <t>0.73+/-0.037</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.676+/-0.036</t>
+  </si>
+  <si>
+    <t>0.601+/-0.037</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.106+/-0.009</t>
+  </si>
+  <si>
+    <t>0.741+/-0.012</t>
+  </si>
+  <si>
+    <t>0.675+/-0.0</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.794+/-0.021</t>
+  </si>
+  <si>
+    <t>0.714+/-0.029</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.652+/-0.037</t>
+  </si>
+  <si>
+    <t>0.586+/-0.031</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.145+/-0.006</t>
+  </si>
+  <si>
+    <t>0.654+/-0.002</t>
+  </si>
+  <si>
+    <t>0.619+/-0.0</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.651+/-0.002</t>
+  </si>
+  <si>
+    <t>0.616+/-0.019</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.664+/-0.009</t>
+  </si>
+  <si>
+    <t>0.633+/-0.017</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>31.759+/-0.345</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.703+/-0.0</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.647+/-0.009</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.897+/-0.014</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.566+/-0.002</t>
+  </si>
+  <si>
+    <t>0.562+/-0.0</t>
+  </si>
+  <si>
+    <t>0.572+/-0.002</t>
+  </si>
+  <si>
+    <t>0.569+/-0.011</t>
+  </si>
+  <si>
+    <t>0.523+/-0.005</t>
+  </si>
+  <si>
+    <t>0.516+/-0.022</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.121+/-0.004</t>
+  </si>
+  <si>
+    <t>0.546+/-0.002</t>
+  </si>
+  <si>
+    <t>0.547+/-0.0</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.556+/-0.002</t>
+  </si>
+  <si>
+    <t>0.557+/-0.013</t>
+  </si>
+  <si>
+    <t>0.388</t>
+  </si>
+  <si>
+    <t>0.456+/-0.024</t>
+  </si>
+  <si>
+    <t>0.456+/-0.032</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t>0.007+/-0.002</t>
+  </si>
+  <si>
+    <t>0.541+/-0.002</t>
+  </si>
+  <si>
+    <t>0.54+/-0.0</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.545+/-0.002</t>
+  </si>
+  <si>
+    <t>0.544+/-0.012</t>
+  </si>
+  <si>
+    <t>0.501+/-0.004</t>
+  </si>
+  <si>
+    <t>0.498+/-0.014</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.712+/-0.013</t>
+  </si>
+  <si>
+    <t>0.623+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699+/-0.026</t>
+  </si>
+  <si>
+    <t>0.613+/-0.023</t>
+  </si>
+  <si>
+    <t>0.75+/-0.035</t>
+  </si>
+  <si>
+    <t>0.672+/-0.04</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>4.215+/-1.086</t>
+  </si>
+  <si>
+    <t>0.729+/-0.005</t>
   </si>
   <si>
     <t>0.645+/-0.0</t>
   </si>
   <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.632+/-0.002</t>
-  </si>
-  <si>
-    <t>0.631+/-0.01</t>
-  </si>
-  <si>
-    <t>0.293</t>
-  </si>
-  <si>
-    <t>0.701+/-0.002</t>
-  </si>
-  <si>
-    <t>0.7+/-0.018</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.221+/-0.013</t>
-  </si>
-  <si>
-    <t>0.596+/-0.002</t>
-  </si>
-  <si>
-    <t>0.596+/-0.0</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.568+/-0.001</t>
-  </si>
-  <si>
-    <t>0.568+/-0.01</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.795+/-0.004</t>
-  </si>
-  <si>
-    <t>0.795+/-0.018</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.598+/-0.002</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.591+/-0.001</t>
-  </si>
-  <si>
-    <t>0.59+/-0.007</t>
-  </si>
-  <si>
-    <t>0.254</t>
-  </si>
-  <si>
-    <t>0.634+/-0.003</t>
-  </si>
-  <si>
-    <t>0.633+/-0.015</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.815+/-0.004</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.806+/-0.016</t>
-  </si>
-  <si>
-    <t>0.748+/-0.021</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.83+/-0.033</t>
-  </si>
-  <si>
-    <t>0.776+/-0.039</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>4.133+/-0.77</t>
-  </si>
-  <si>
-    <t>0.798+/-0.007</t>
-  </si>
-  <si>
-    <t>0.75+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.786+/-0.014</t>
-  </si>
-  <si>
-    <t>0.737+/-0.017</t>
-  </si>
-  <si>
-    <t>0.283</t>
-  </si>
-  <si>
-    <t>0.821+/-0.021</t>
-  </si>
-  <si>
-    <t>0.776+/-0.018</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.124+/-0.008</t>
-  </si>
-  <si>
-    <t>0.782+/-0.004</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.776+/-0.006</t>
-  </si>
-  <si>
-    <t>0.742+/-0.02</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.794+/-0.01</t>
-  </si>
-  <si>
-    <t>0.759+/-0.025</t>
-  </si>
-  <si>
-    <t>0.416</t>
-  </si>
-  <si>
-    <t>0.178+/-0.011</t>
-  </si>
-  <si>
-    <t>0.753+/-0.002</t>
-  </si>
-  <si>
-    <t>0.733+/-0.0</t>
-  </si>
-  <si>
-    <t>0.669</t>
-  </si>
-  <si>
-    <t>0.74+/-0.003</t>
-  </si>
-  <si>
-    <t>0.72+/-0.015</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.779+/-0.003</t>
-  </si>
-  <si>
-    <t>0.763+/-0.016</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>33.496+/-1.962</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.823+/-0.0</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.743+/-0.01</t>
-  </si>
-  <si>
-    <t>0.235</t>
-  </si>
-  <si>
-    <t>0.988+/-0.007</t>
-  </si>
-  <si>
-    <t>0.66+/-0.002</t>
-  </si>
-  <si>
-    <t>0.658+/-0.0</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.647+/-0.001</t>
-  </si>
-  <si>
-    <t>0.645+/-0.009</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.706+/-0.004</t>
-  </si>
-  <si>
-    <t>0.704+/-0.015</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.264+/-0.019</t>
-  </si>
-  <si>
-    <t>0.603+/-0.002</t>
-  </si>
-  <si>
-    <t>0.603+/-0.0</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.576+/-0.002</t>
-  </si>
-  <si>
-    <t>0.576+/-0.011</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>0.785+/-0.005</t>
-  </si>
-  <si>
-    <t>0.785+/-0.011</t>
-  </si>
-  <si>
-    <t>0.756</t>
-  </si>
-  <si>
-    <t>0.605+/-0.001</t>
-  </si>
-  <si>
-    <t>0.604+/-0.0</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.597+/-0.001</t>
-  </si>
-  <si>
-    <t>0.597+/-0.016</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>0.644+/-0.002</t>
-  </si>
-  <si>
-    <t>0.643+/-0.02</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.835+/-0.007</t>
-  </si>
-  <si>
-    <t>0.791+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.809+/-0.009</t>
-  </si>
-  <si>
-    <t>0.766+/-0.009</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.877+/-0.02</t>
-  </si>
-  <si>
-    <t>0.839+/-0.027</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>3.682+/-0.594</t>
-  </si>
-  <si>
-    <t>0.826+/-0.01</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.843+/-0.029</t>
-  </si>
-  <si>
-    <t>0.797+/-0.029</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>0.805+/-0.04</t>
-  </si>
-  <si>
-    <t>0.765+/-0.048</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.126+/-0.01</t>
-  </si>
-  <si>
-    <t>0.812+/-0.006</t>
-  </si>
-  <si>
-    <t>0.778+/-0.0</t>
-  </si>
-  <si>
-    <t>0.684</t>
-  </si>
-  <si>
-    <t>0.782+/-0.011</t>
-  </si>
-  <si>
-    <t>0.749+/-0.017</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.866+/-0.012</t>
-  </si>
-  <si>
-    <t>0.837+/-0.022</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>0.184+/-0.006</t>
-  </si>
-  <si>
-    <t>0.766+/-0.002</t>
-  </si>
-  <si>
-    <t>0.672</t>
-  </si>
-  <si>
-    <t>0.749+/-0.002</t>
-  </si>
-  <si>
-    <t>0.734+/-0.01</t>
-  </si>
-  <si>
-    <t>0.249</t>
-  </si>
-  <si>
-    <t>0.801+/-0.003</t>
-  </si>
-  <si>
-    <t>0.784+/-0.014</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>34.531+/-0.945</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.727+/-0.0</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.664+/-0.011</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.998+/-0.0</t>
-  </si>
-  <si>
-    <t>0.919+/-0.014</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.586+/-0.002</t>
-  </si>
-  <si>
-    <t>0.583+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593+/-0.002</t>
-  </si>
-  <si>
-    <t>0.59+/-0.015</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.547+/-0.003</t>
-  </si>
-  <si>
-    <t>0.546+/-0.017</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.244+/-0.017</t>
-  </si>
-  <si>
-    <t>0.565+/-0.001</t>
-  </si>
-  <si>
-    <t>0.564+/-0.0</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.581+/-0.003</t>
-  </si>
-  <si>
-    <t>0.58+/-0.016</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.464+/-0.011</t>
-  </si>
-  <si>
-    <t>0.462+/-0.021</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.557+/-0.001</t>
-  </si>
-  <si>
-    <t>0.557+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.563+/-0.001</t>
-  </si>
-  <si>
-    <t>0.562+/-0.011</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.515+/-0.002</t>
-  </si>
-  <si>
-    <t>0.515+/-0.02</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.736+/-0.015</t>
-  </si>
-  <si>
-    <t>0.654+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722+/-0.022</t>
-  </si>
-  <si>
-    <t>0.643+/-0.015</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.77+/-0.052</t>
-  </si>
-  <si>
-    <t>0.696+/-0.064</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>4.124+/-0.68</t>
-  </si>
-  <si>
-    <t>0.76+/-0.007</t>
-  </si>
-  <si>
-    <t>0.667+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.769+/-0.034</t>
-  </si>
-  <si>
-    <t>0.672+/-0.033</t>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.772+/-0.063</t>
+  </si>
+  <si>
+    <t>0.668+/-0.041</t>
   </si>
   <si>
     <t>0.359</t>
   </si>
   <si>
-    <t>0.751+/-0.05</t>
-  </si>
-  <si>
-    <t>0.664+/-0.05</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>0.133+/-0.007</t>
-  </si>
-  <si>
-    <t>0.736+/-0.007</t>
-  </si>
-  <si>
-    <t>0.671+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649</t>
-  </si>
-  <si>
-    <t>0.761+/-0.03</t>
-  </si>
-  <si>
-    <t>0.69+/-0.031</t>
-  </si>
-  <si>
-    <t>0.693+/-0.051</t>
-  </si>
-  <si>
-    <t>0.63+/-0.059</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.192+/-0.009</t>
-  </si>
-  <si>
-    <t>0.658+/-0.002</t>
-  </si>
-  <si>
-    <t>0.62+/-0.0</t>
-  </si>
-  <si>
-    <t>0.654+/-0.004</t>
-  </si>
-  <si>
-    <t>0.617+/-0.015</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.671+/-0.01</t>
-  </si>
-  <si>
-    <t>0.634+/-0.025</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>31.814+/-1.751</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.539</t>
-  </si>
-  <si>
-    <t>0.646+/-0.007</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.901+/-0.019</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.572+/-0.001</t>
-  </si>
-  <si>
-    <t>0.57+/-0.013</t>
-  </si>
-  <si>
-    <t>0.523+/-0.003</t>
-  </si>
-  <si>
-    <t>0.519+/-0.028</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.133+/-0.008</t>
-  </si>
-  <si>
-    <t>0.548+/-0.001</t>
-  </si>
-  <si>
-    <t>0.546+/-0.0</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.546+/-0.002</t>
-  </si>
-  <si>
-    <t>0.545+/-0.013</t>
+    <t>0.675+/-0.104</t>
+  </si>
+  <si>
+    <t>0.601+/-0.105</t>
+  </si>
+  <si>
+    <t>0.136+/-0.002</t>
+  </si>
+  <si>
+    <t>0.708+/-0.005</t>
+  </si>
+  <si>
+    <t>0.651+/-0.0</t>
+  </si>
+  <si>
+    <t>0.74+/-0.053</t>
+  </si>
+  <si>
+    <t>0.671+/-0.038</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.66+/-0.082</t>
+  </si>
+  <si>
+    <t>0.613+/-0.093</t>
+  </si>
+  <si>
+    <t>0.199+/-0.005</t>
+  </si>
+  <si>
+    <t>0.646+/-0.003</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.64+/-0.004</t>
+  </si>
+  <si>
+    <t>0.602+/-0.011</t>
   </si>
   <si>
     <t>0.37</t>
   </si>
   <si>
-    <t>0.563+/-0.018</t>
-  </si>
-  <si>
-    <t>0.56+/-0.03</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.539+/-0.001</t>
-  </si>
-  <si>
-    <t>0.539+/-0.0</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.542+/-0.001</t>
-  </si>
-  <si>
-    <t>0.542+/-0.011</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.502+/-0.005</t>
-  </si>
-  <si>
-    <t>0.503+/-0.028</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.704+/-0.009</t>
-  </si>
-  <si>
-    <t>0.624+/-0.0</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.698+/-0.029</t>
-  </si>
-  <si>
-    <t>0.62+/-0.02</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.728+/-0.059</t>
-  </si>
-  <si>
-    <t>0.648+/-0.07</t>
-  </si>
-  <si>
-    <t>0.531</t>
-  </si>
-  <si>
-    <t>3.252+/-1.018</t>
-  </si>
-  <si>
-    <t>0.732+/-0.009</t>
-  </si>
-  <si>
-    <t>0.657+/-0.0</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.832+/-0.042</t>
-  </si>
-  <si>
-    <t>0.719+/-0.033</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.589+/-0.057</t>
-  </si>
-  <si>
-    <t>0.522+/-0.048</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.108+/-0.005</t>
-  </si>
-  <si>
-    <t>0.711+/-0.006</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.824+/-0.05</t>
-  </si>
-  <si>
-    <t>0.733+/-0.048</t>
-  </si>
-  <si>
-    <t>0.549+/-0.069</t>
-  </si>
-  <si>
-    <t>0.499+/-0.064</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.151+/-0.008</t>
-  </si>
-  <si>
-    <t>0.651+/-0.004</t>
-  </si>
-  <si>
-    <t>0.61+/-0.0</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.645+/-0.004</t>
-  </si>
-  <si>
-    <t>0.606+/-0.015</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.668+/-0.006</t>
-  </si>
-  <si>
-    <t>0.632+/-0.027</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>30.2+/-1.521</t>
+    <t>0.665+/-0.006</t>
+  </si>
+  <si>
+    <t>0.629+/-0.017</t>
+  </si>
+  <si>
+    <t>31.006+/-2.153</t>
   </si>
 </sst>
 </file>
@@ -1392,16 +1407,16 @@
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1421,19 +1436,19 @@
         <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1453,19 +1468,19 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1485,19 +1500,19 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1517,19 +1532,19 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1549,19 +1564,19 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1581,19 +1596,19 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1613,19 +1628,19 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1645,19 +1660,19 @@
         <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1677,19 +1692,19 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1745,25 +1760,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1774,28 +1789,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1803,31 +1818,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1841,25 +1856,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1870,28 +1885,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1902,28 +1917,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1937,25 +1952,25 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1966,28 +1981,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1998,28 +2013,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2027,31 +2042,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2104,28 +2119,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2136,28 +2151,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="J3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2165,31 +2180,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2197,31 +2212,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2229,31 +2244,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="J6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2264,28 +2279,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2293,31 +2308,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2325,31 +2340,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="J9" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2360,28 +2375,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J10" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2392,28 +2407,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2466,28 +2481,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="J2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2498,28 +2513,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="G3" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2527,31 +2542,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G4" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2559,31 +2574,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="G5" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2591,31 +2606,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2626,28 +2641,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2655,31 +2670,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G8" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H8" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2687,31 +2702,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H9" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="I9" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="J9" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2722,28 +2737,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H10" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="I10" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2754,28 +2769,28 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H11" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="I11" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J11" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_50_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="421">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,928 +73,1213 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
   </si>
   <si>
     <t>0.999+/-0.0</t>
   </si>
   <si>
-    <t>0.802+/-0.0</t>
+    <t>0.636+/-0.0</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>0.307+/-0.014</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.64+/-0.036</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.692+/-0.015</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.005+/-0.0</t>
+  </si>
+  <si>
+    <t>0.647+/-0.002</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.632+/-0.002</t>
+  </si>
+  <si>
+    <t>0.292+/-0.013</t>
+  </si>
+  <si>
+    <t>0.457</t>
+  </si>
+  <si>
+    <t>0.704+/-0.005</t>
+  </si>
+  <si>
+    <t>0.677+/-0.043</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.709+/-0.002</t>
+  </si>
+  <si>
+    <t>0.692+/-0.018</t>
+  </si>
+  <si>
+    <t>0.39+/-0.031</t>
+  </si>
+  <si>
+    <t>0.602+/-0.006</t>
+  </si>
+  <si>
+    <t>0.477+/-0.0</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.573+/-0.005</t>
+  </si>
+  <si>
+    <t>0.247+/-0.013</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.802+/-0.007</t>
+  </si>
+  <si>
+    <t>0.78+/-0.038</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.669+/-0.006</t>
+  </si>
+  <si>
+    <t>0.657+/-0.026</t>
   </si>
   <si>
     <t>0.624</t>
   </si>
   <si>
-    <t>0.727+/-0.011</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.968+/-0.008</t>
+    <t>0.012+/-0.002</t>
+  </si>
+  <si>
+    <t>0.599+/-0.003</t>
+  </si>
+  <si>
+    <t>0.572+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716</t>
+  </si>
+  <si>
+    <t>0.591+/-0.003</t>
+  </si>
+  <si>
+    <t>0.264+/-0.012</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.638+/-0.006</t>
+  </si>
+  <si>
+    <t>0.627+/-0.032</t>
+  </si>
+  <si>
+    <t>0.272</t>
+  </si>
+  <si>
+    <t>0.646+/-0.003</t>
+  </si>
+  <si>
+    <t>0.637+/-0.02</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.017+/-0.004</t>
+  </si>
+  <si>
+    <t>0.819+/-0.009</t>
+  </si>
+  <si>
+    <t>0.68+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.793+/-0.02</t>
+  </si>
+  <si>
+    <t>0.332+/-0.024</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.865+/-0.036</t>
+  </si>
+  <si>
+    <t>0.577+/-0.071</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.901+/-0.007</t>
+  </si>
+  <si>
+    <t>0.702+/-0.025</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>32.108+/-10.297</t>
+  </si>
+  <si>
+    <t>0.799+/-0.006</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.804+/-0.039</t>
+  </si>
+  <si>
+    <t>0.322+/-0.023</t>
+  </si>
+  <si>
+    <t>0.453</t>
+  </si>
+  <si>
+    <t>0.798+/-0.057</t>
+  </si>
+  <si>
+    <t>0.467+/-0.071</t>
+  </si>
+  <si>
+    <t>0.181</t>
+  </si>
+  <si>
+    <t>0.897+/-0.005</t>
+  </si>
+  <si>
+    <t>0.652+/-0.024</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.228+/-0.034</t>
+  </si>
+  <si>
+    <t>0.782+/-0.008</t>
+  </si>
+  <si>
+    <t>0.672+/-0.0</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.772+/-0.03</t>
+  </si>
+  <si>
+    <t>0.309+/-0.027</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.805+/-0.046</t>
+  </si>
+  <si>
+    <t>0.496+/-0.063</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.884+/-0.006</t>
+  </si>
+  <si>
+    <t>0.659+/-0.021</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.302+/-0.043</t>
+  </si>
+  <si>
+    <t>0.755+/-0.004</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.733+/-0.004</t>
+  </si>
+  <si>
+    <t>0.345+/-0.021</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.803+/-0.008</t>
+  </si>
+  <si>
+    <t>0.661+/-0.07</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.838+/-0.003</t>
+  </si>
+  <si>
+    <t>0.727+/-0.03</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>53.936+/-1.661</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.647+/-0.0</t>
+  </si>
+  <si>
+    <t>0.236+/-0.011</t>
+  </si>
+  <si>
+    <t>0.606+/-0.038</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.68+/-0.016</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.01+/-0.005</t>
+  </si>
+  <si>
+    <t>0.663+/-0.006</t>
+  </si>
+  <si>
+    <t>0.626+/-0.0</t>
+  </si>
+  <si>
+    <t>0.846</t>
+  </si>
+  <si>
+    <t>0.65+/-0.005</t>
+  </si>
+  <si>
+    <t>0.239+/-0.018</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.708+/-0.009</t>
+  </si>
+  <si>
+    <t>0.684+/-0.056</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.73+/-0.004</t>
+  </si>
+  <si>
+    <t>0.713+/-0.028</t>
+  </si>
+  <si>
+    <t>0.449+/-0.116</t>
+  </si>
+  <si>
+    <t>0.607+/-0.004</t>
+  </si>
+  <si>
+    <t>0.501+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.583+/-0.004</t>
+  </si>
+  <si>
+    <t>0.194+/-0.012</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.753+/-0.017</t>
+  </si>
+  <si>
+    <t>0.735+/-0.048</t>
+  </si>
+  <si>
+    <t>0.423</t>
+  </si>
+  <si>
+    <t>0.67+/-0.004</t>
+  </si>
+  <si>
+    <t>0.66+/-0.035</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.015+/-0.002</t>
+  </si>
+  <si>
+    <t>0.606+/-0.004</t>
+  </si>
+  <si>
+    <t>0.58+/-0.0</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.6+/-0.004</t>
+  </si>
+  <si>
+    <t>0.204+/-0.014</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.638+/-0.005</t>
+  </si>
+  <si>
+    <t>0.618+/-0.038</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.656+/-0.004</t>
+  </si>
+  <si>
+    <t>0.647+/-0.025</t>
   </si>
   <si>
     <t>0.621</t>
   </si>
   <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.649+/-0.001</t>
-  </si>
-  <si>
-    <t>0.648+/-0.0</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>0.634+/-0.001</t>
-  </si>
-  <si>
-    <t>0.633+/-0.006</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.706+/-0.003</t>
-  </si>
-  <si>
-    <t>0.703+/-0.012</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.208+/-0.005</t>
-  </si>
-  <si>
-    <t>0.604+/-0.002</t>
-  </si>
-  <si>
-    <t>0.603+/-0.0</t>
-  </si>
-  <si>
-    <t>0.467</t>
-  </si>
-  <si>
-    <t>0.575+/-0.002</t>
-  </si>
-  <si>
-    <t>0.574+/-0.011</t>
-  </si>
-  <si>
-    <t>0.238</t>
-  </si>
-  <si>
-    <t>0.8+/-0.003</t>
-  </si>
-  <si>
-    <t>0.798+/-0.017</t>
-  </si>
-  <si>
-    <t>0.744</t>
+    <t>0.02+/-0.005</t>
+  </si>
+  <si>
+    <t>0.852+/-0.005</t>
+  </si>
+  <si>
+    <t>0.712+/-0.0</t>
+  </si>
+  <si>
+    <t>0.854</t>
+  </si>
+  <si>
+    <t>0.821+/-0.012</t>
+  </si>
+  <si>
+    <t>0.265+/-0.031</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.901+/-0.025</t>
+  </si>
+  <si>
+    <t>0.512+/-0.049</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.926+/-0.004</t>
+  </si>
+  <si>
+    <t>0.69+/-0.035</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>28.616+/-4.712</t>
+  </si>
+  <si>
+    <t>0.832+/-0.009</t>
+  </si>
+  <si>
+    <t>0.718+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.822+/-0.027</t>
+  </si>
+  <si>
+    <t>0.266+/-0.028</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.849+/-0.035</t>
+  </si>
+  <si>
+    <t>0.49+/-0.055</t>
+  </si>
+  <si>
+    <t>0.186</t>
+  </si>
+  <si>
+    <t>0.921+/-0.008</t>
+  </si>
+  <si>
+    <t>0.66+/-0.027</t>
+  </si>
+  <si>
+    <t>0.655</t>
+  </si>
+  <si>
+    <t>0.277+/-0.056</t>
+  </si>
+  <si>
+    <t>0.807+/-0.006</t>
+  </si>
+  <si>
+    <t>0.714+/-0.0</t>
+  </si>
+  <si>
+    <t>0.796+/-0.029</t>
+  </si>
+  <si>
+    <t>0.268+/-0.023</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.829+/-0.04</t>
+  </si>
+  <si>
+    <t>0.511+/-0.077</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t>0.904+/-0.005</t>
+  </si>
+  <si>
+    <t>0.677+/-0.023</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.363+/-0.069</t>
+  </si>
+  <si>
+    <t>0.77+/-0.004</t>
+  </si>
+  <si>
+    <t>0.702+/-0.0</t>
+  </si>
+  <si>
+    <t>0.754+/-0.004</t>
+  </si>
+  <si>
+    <t>0.278+/-0.023</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.801+/-0.009</t>
+  </si>
+  <si>
+    <t>0.619+/-0.052</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.858+/-0.001</t>
+  </si>
+  <si>
+    <t>0.729+/-0.022</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>66.276+/-2.497</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.549+/-0.0</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>0.322+/-0.016</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.572+/-0.035</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.582+/-0.021</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.007+/-0.002</t>
+  </si>
+  <si>
+    <t>0.584+/-0.003</t>
+  </si>
+  <si>
+    <t>0.605+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.593+/-0.003</t>
+  </si>
+  <si>
+    <t>0.358+/-0.015</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.535+/-0.006</t>
+  </si>
+  <si>
+    <t>0.532+/-0.02</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.627+/-0.003</t>
+  </si>
+  <si>
+    <t>0.617+/-0.016</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.19+/-0.02</t>
+  </si>
+  <si>
+    <t>0.561+/-0.002</t>
+  </si>
+  <si>
+    <t>0.633+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.591+/-0.002</t>
+  </si>
+  <si>
+    <t>0.354+/-0.017</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.396+/-0.013</t>
+  </si>
+  <si>
+    <t>0.393+/-0.018</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.592+/-0.002</t>
+  </si>
+  <si>
+    <t>0.588+/-0.018</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.016+/-0.009</t>
+  </si>
+  <si>
+    <t>0.558+/-0.002</t>
+  </si>
+  <si>
+    <t>0.574+/-0.0</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.564+/-0.002</t>
+  </si>
+  <si>
+    <t>0.328+/-0.011</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.517+/-0.005</t>
+  </si>
+  <si>
+    <t>0.513+/-0.02</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.588+/-0.002</t>
+  </si>
+  <si>
+    <t>0.584+/-0.015</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.016+/-0.003</t>
+  </si>
+  <si>
+    <t>0.73+/-0.012</t>
+  </si>
+  <si>
+    <t>0.573+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.711+/-0.024</t>
+  </si>
+  <si>
+    <t>0.327+/-0.025</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.782+/-0.061</t>
+  </si>
+  <si>
+    <t>0.505+/-0.046</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.815+/-0.011</t>
+  </si>
+  <si>
+    <t>0.571+/-0.028</t>
+  </si>
+  <si>
+    <t>37.131+/-18.474</t>
+  </si>
+  <si>
+    <t>0.756+/-0.013</t>
+  </si>
+  <si>
+    <t>0.618+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.794+/-0.051</t>
+  </si>
+  <si>
+    <t>0.329+/-0.026</t>
+  </si>
+  <si>
+    <t>0.703+/-0.058</t>
+  </si>
+  <si>
+    <t>0.352+/-0.077</t>
+  </si>
+  <si>
+    <t>0.169</t>
+  </si>
+  <si>
+    <t>0.855+/-0.011</t>
+  </si>
+  <si>
+    <t>0.547+/-0.021</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>0.224+/-0.013</t>
+  </si>
+  <si>
+    <t>0.734+/-0.014</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.792+/-0.027</t>
+  </si>
+  <si>
+    <t>0.358+/-0.025</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.639+/-0.039</t>
+  </si>
+  <si>
+    <t>0.33+/-0.041</t>
+  </si>
+  <si>
+    <t>0.146</t>
+  </si>
+  <si>
+    <t>0.832+/-0.012</t>
+  </si>
+  <si>
+    <t>0.566+/-0.029</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.311+/-0.08</t>
+  </si>
+  <si>
+    <t>0.66+/-0.002</t>
+  </si>
+  <si>
+    <t>0.59+/-0.0</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.658+/-0.003</t>
+  </si>
+  <si>
+    <t>0.343+/-0.014</t>
+  </si>
+  <si>
+    <t>0.666+/-0.012</t>
+  </si>
+  <si>
+    <t>0.523+/-0.03</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.734+/-0.003</t>
+  </si>
+  <si>
+    <t>0.602+/-0.017</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>58.134+/-2.397</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.528+/-0.0</t>
+  </si>
+  <si>
+    <t>0.672</t>
+  </si>
+  <si>
+    <t>0.34+/-0.018</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.999+/-0.001</t>
+  </si>
+  <si>
+    <t>0.564+/-0.022</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.559+/-0.019</t>
+  </si>
+  <si>
+    <t>0.578</t>
   </si>
   <si>
     <t>0.005+/-0.001</t>
   </si>
   <si>
-    <t>0.602+/-0.001</t>
-  </si>
-  <si>
-    <t>0.601+/-0.0</t>
+    <t>0.565+/-0.005</t>
+  </si>
+  <si>
+    <t>0.577+/-0.0</t>
+  </si>
+  <si>
+    <t>0.571+/-0.006</t>
+  </si>
+  <si>
+    <t>0.367+/-0.019</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.523+/-0.007</t>
+  </si>
+  <si>
+    <t>0.516+/-0.03</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.601+/-0.004</t>
+  </si>
+  <si>
+    <t>0.589+/-0.018</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.221+/-0.049</t>
+  </si>
+  <si>
+    <t>0.549+/-0.003</t>
+  </si>
+  <si>
+    <t>0.571+/-0.0</t>
+  </si>
+  <si>
+    <t>0.649</t>
+  </si>
+  <si>
+    <t>0.556+/-0.003</t>
+  </si>
+  <si>
+    <t>0.354+/-0.013</t>
+  </si>
+  <si>
+    <t>0.397</t>
+  </si>
+  <si>
+    <t>0.483+/-0.027</t>
+  </si>
+  <si>
+    <t>0.476+/-0.043</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.576+/-0.003</t>
+  </si>
+  <si>
+    <t>0.57+/-0.016</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.012+/-0.003</t>
+  </si>
+  <si>
+    <t>0.545+/-0.004</t>
+  </si>
+  <si>
+    <t>0.558+/-0.0</t>
+  </si>
+  <si>
+    <t>0.636</t>
+  </si>
+  <si>
+    <t>0.548+/-0.004</t>
+  </si>
+  <si>
+    <t>0.349+/-0.014</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.508+/-0.007</t>
+  </si>
+  <si>
+    <t>0.502+/-0.026</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.568+/-0.003</t>
+  </si>
+  <si>
+    <t>0.564+/-0.015</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.017+/-0.005</t>
+  </si>
+  <si>
+    <t>0.705+/-0.01</t>
+  </si>
+  <si>
+    <t>0.689+/-0.02</t>
+  </si>
+  <si>
+    <t>0.344+/-0.019</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.754+/-0.05</t>
+  </si>
+  <si>
+    <t>0.507+/-0.051</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.785+/-0.011</t>
+  </si>
+  <si>
+    <t>0.562+/-0.021</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>25.713+/-8.79</t>
+  </si>
+  <si>
+    <t>0.731+/-0.006</t>
+  </si>
+  <si>
+    <t>0.578+/-0.0</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.752+/-0.066</t>
+  </si>
+  <si>
+    <t>0.346+/-0.042</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>0.718+/-0.112</t>
+  </si>
+  <si>
+    <t>0.392+/-0.121</t>
+  </si>
+  <si>
+    <t>0.835+/-0.007</t>
+  </si>
+  <si>
+    <t>0.544+/-0.029</t>
+  </si>
+  <si>
+    <t>0.559</t>
+  </si>
+  <si>
+    <t>0.187+/-0.035</t>
+  </si>
+  <si>
+    <t>0.707+/-0.01</t>
+  </si>
+  <si>
+    <t>0.612+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.764+/-0.064</t>
+  </si>
+  <si>
+    <t>0.369+/-0.039</t>
+  </si>
+  <si>
+    <t>0.488</t>
+  </si>
+  <si>
+    <t>0.624+/-0.107</t>
+  </si>
+  <si>
+    <t>0.344+/-0.128</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.808+/-0.01</t>
+  </si>
+  <si>
+    <t>0.549+/-0.028</t>
+  </si>
+  <si>
+    <t>0.246+/-0.027</t>
+  </si>
+  <si>
+    <t>0.648+/-0.006</t>
+  </si>
+  <si>
+    <t>0.569+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642+/-0.003</t>
+  </si>
+  <si>
+    <t>0.364+/-0.015</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.67+/-0.019</t>
+  </si>
+  <si>
+    <t>0.535+/-0.028</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.717+/-0.004</t>
+  </si>
+  <si>
+    <t>0.581+/-0.019</t>
   </si>
   <si>
     <t>0.563</t>
   </si>
   <si>
-    <t>0.594+/-0.001</t>
-  </si>
-  <si>
-    <t>0.594+/-0.008</t>
-  </si>
-  <si>
-    <t>0.253</t>
-  </si>
-  <si>
-    <t>0.64+/-0.002</t>
-  </si>
-  <si>
-    <t>0.638+/-0.02</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.809+/-0.008</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.789+/-0.019</t>
-  </si>
-  <si>
-    <t>0.731+/-0.021</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>0.844+/-0.028</t>
-  </si>
-  <si>
-    <t>0.787+/-0.047</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>4.043+/-1.023</t>
-  </si>
-  <si>
-    <t>0.786+/-0.005</t>
-  </si>
-  <si>
-    <t>0.737+/-0.0</t>
-  </si>
-  <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.756+/-0.01</t>
-  </si>
-  <si>
-    <t>0.711+/-0.017</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.845+/-0.015</t>
-  </si>
-  <si>
-    <t>0.8+/-0.02</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.143+/-0.007</t>
-  </si>
-  <si>
-    <t>0.772+/-0.004</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.737+/-0.008</t>
-  </si>
-  <si>
-    <t>0.703+/-0.013</t>
-  </si>
-  <si>
-    <t>0.847+/-0.019</t>
-  </si>
-  <si>
-    <t>0.812+/-0.025</t>
-  </si>
-  <si>
-    <t>0.573</t>
-  </si>
-  <si>
-    <t>0.204+/-0.02</t>
-  </si>
-  <si>
-    <t>0.747+/-0.002</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.655</t>
-  </si>
-  <si>
-    <t>0.728+/-0.003</t>
-  </si>
-  <si>
-    <t>0.708+/-0.009</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.787+/-0.004</t>
-  </si>
-  <si>
-    <t>0.769+/-0.016</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>33.554+/-2.992</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.001+/-0.0</t>
-  </si>
-  <si>
-    <t>0.821+/-0.0</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.742+/-0.01</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.987+/-0.005</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.66+/-0.002</t>
-  </si>
-  <si>
-    <t>0.659+/-0.0</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.647+/-0.002</t>
-  </si>
-  <si>
-    <t>0.645+/-0.014</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.705+/-0.02</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.315+/-0.027</t>
-  </si>
-  <si>
-    <t>0.603+/-0.002</t>
-  </si>
-  <si>
-    <t>0.602+/-0.0</t>
-  </si>
-  <si>
-    <t>0.482</t>
-  </si>
-  <si>
-    <t>0.577+/-0.002</t>
-  </si>
-  <si>
-    <t>0.576+/-0.012</t>
-  </si>
-  <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t>0.774+/-0.007</t>
-  </si>
-  <si>
-    <t>0.773+/-0.016</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.601+/-0.002</t>
-  </si>
-  <si>
-    <t>0.6+/-0.0</t>
-  </si>
-  <si>
-    <t>0.569</t>
-  </si>
-  <si>
-    <t>0.595+/-0.002</t>
-  </si>
-  <si>
-    <t>0.594+/-0.019</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>0.635+/-0.003</t>
-  </si>
-  <si>
-    <t>0.634+/-0.016</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.839+/-0.009</t>
-  </si>
-  <si>
-    <t>0.799+/-0.0</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.81+/-0.01</t>
-  </si>
-  <si>
-    <t>0.77+/-0.012</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.887+/-0.026</t>
-  </si>
-  <si>
-    <t>0.855+/-0.03</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>5.346+/-0.984</t>
-  </si>
-  <si>
-    <t>0.816+/-0.003</t>
-  </si>
-  <si>
-    <t>0.773+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.811+/-0.008</t>
-  </si>
-  <si>
-    <t>0.771+/-0.014</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.822+/-0.012</t>
-  </si>
-  <si>
-    <t>0.778+/-0.011</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>0.175+/-0.005</t>
-  </si>
-  <si>
-    <t>0.804+/-0.003</t>
-  </si>
-  <si>
-    <t>0.776+/-0.0</t>
-  </si>
-  <si>
-    <t>0.691</t>
-  </si>
-  <si>
-    <t>0.767+/-0.012</t>
-  </si>
-  <si>
-    <t>0.743+/-0.009</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.874+/-0.021</t>
-  </si>
-  <si>
-    <t>0.846+/-0.026</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.253+/-0.004</t>
-  </si>
-  <si>
-    <t>0.769+/-0.001</t>
-  </si>
-  <si>
-    <t>0.751+/-0.0</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.751+/-0.002</t>
-  </si>
-  <si>
-    <t>0.732+/-0.008</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>0.806+/-0.005</t>
-  </si>
-  <si>
-    <t>0.79+/-0.025</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>38.346+/-1.816</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.732+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668+/-0.006</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.923+/-0.01</t>
-  </si>
-  <si>
-    <t>0.002+/-0.001</t>
-  </si>
-  <si>
-    <t>0.581+/-0.002</t>
-  </si>
-  <si>
-    <t>0.58+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.589+/-0.002</t>
-  </si>
-  <si>
-    <t>0.588+/-0.02</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.538+/-0.003</t>
-  </si>
-  <si>
-    <t>0.536+/-0.025</t>
-  </si>
-  <si>
-    <t>0.507</t>
-  </si>
-  <si>
-    <t>0.127+/-0.015</t>
-  </si>
-  <si>
-    <t>0.557+/-0.001</t>
-  </si>
-  <si>
-    <t>0.556+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.604+/-0.027</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.332+/-0.002</t>
-  </si>
-  <si>
-    <t>0.33+/-0.012</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.562+/-0.002</t>
-  </si>
-  <si>
-    <t>0.561+/-0.0</t>
-  </si>
-  <si>
-    <t>0.593</t>
-  </si>
-  <si>
-    <t>0.568+/-0.002</t>
-  </si>
-  <si>
-    <t>0.567+/-0.014</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.517+/-0.003</t>
-  </si>
-  <si>
-    <t>0.516+/-0.014</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.721+/-0.009</t>
-  </si>
-  <si>
-    <t>0.652+/-0.0</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.7+/-0.019</t>
-  </si>
-  <si>
-    <t>0.634+/-0.013</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.777+/-0.041</t>
-  </si>
-  <si>
-    <t>0.721+/-0.05</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>4.569+/-0.847</t>
-  </si>
-  <si>
-    <t>0.763+/-0.009</t>
-  </si>
-  <si>
-    <t>0.688+/-0.0</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.819+/-0.023</t>
-  </si>
-  <si>
-    <t>0.73+/-0.037</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.676+/-0.036</t>
-  </si>
-  <si>
-    <t>0.601+/-0.037</t>
-  </si>
-  <si>
-    <t>0.276</t>
-  </si>
-  <si>
-    <t>0.106+/-0.009</t>
-  </si>
-  <si>
-    <t>0.741+/-0.012</t>
-  </si>
-  <si>
-    <t>0.675+/-0.0</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>0.794+/-0.021</t>
-  </si>
-  <si>
-    <t>0.714+/-0.029</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.652+/-0.037</t>
-  </si>
-  <si>
-    <t>0.586+/-0.031</t>
-  </si>
-  <si>
-    <t>0.313</t>
-  </si>
-  <si>
-    <t>0.145+/-0.006</t>
-  </si>
-  <si>
-    <t>0.654+/-0.002</t>
-  </si>
-  <si>
-    <t>0.619+/-0.0</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.651+/-0.002</t>
-  </si>
-  <si>
-    <t>0.616+/-0.019</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.664+/-0.009</t>
-  </si>
-  <si>
-    <t>0.633+/-0.017</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>31.759+/-0.345</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.703+/-0.0</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.647+/-0.009</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.897+/-0.014</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.566+/-0.002</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.572+/-0.002</t>
-  </si>
-  <si>
-    <t>0.569+/-0.011</t>
-  </si>
-  <si>
-    <t>0.523+/-0.005</t>
-  </si>
-  <si>
-    <t>0.516+/-0.022</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.121+/-0.004</t>
-  </si>
-  <si>
-    <t>0.546+/-0.002</t>
-  </si>
-  <si>
-    <t>0.547+/-0.0</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.556+/-0.002</t>
-  </si>
-  <si>
-    <t>0.557+/-0.013</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.456+/-0.024</t>
-  </si>
-  <si>
-    <t>0.456+/-0.032</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t>0.007+/-0.002</t>
-  </si>
-  <si>
-    <t>0.541+/-0.002</t>
-  </si>
-  <si>
-    <t>0.54+/-0.0</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.545+/-0.002</t>
-  </si>
-  <si>
-    <t>0.544+/-0.012</t>
-  </si>
-  <si>
-    <t>0.501+/-0.004</t>
-  </si>
-  <si>
-    <t>0.498+/-0.014</t>
-  </si>
-  <si>
-    <t>0.506</t>
-  </si>
-  <si>
-    <t>0.712+/-0.013</t>
-  </si>
-  <si>
-    <t>0.623+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699+/-0.026</t>
-  </si>
-  <si>
-    <t>0.613+/-0.023</t>
-  </si>
-  <si>
-    <t>0.75+/-0.035</t>
-  </si>
-  <si>
-    <t>0.672+/-0.04</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>4.215+/-1.086</t>
-  </si>
-  <si>
-    <t>0.729+/-0.005</t>
-  </si>
-  <si>
-    <t>0.645+/-0.0</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.772+/-0.063</t>
-  </si>
-  <si>
-    <t>0.668+/-0.041</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.675+/-0.104</t>
-  </si>
-  <si>
-    <t>0.601+/-0.105</t>
-  </si>
-  <si>
-    <t>0.136+/-0.002</t>
-  </si>
-  <si>
-    <t>0.708+/-0.005</t>
-  </si>
-  <si>
-    <t>0.651+/-0.0</t>
-  </si>
-  <si>
-    <t>0.74+/-0.053</t>
-  </si>
-  <si>
-    <t>0.671+/-0.038</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.66+/-0.082</t>
-  </si>
-  <si>
-    <t>0.613+/-0.093</t>
-  </si>
-  <si>
-    <t>0.199+/-0.005</t>
-  </si>
-  <si>
-    <t>0.646+/-0.003</t>
-  </si>
-  <si>
-    <t>0.606+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.64+/-0.004</t>
-  </si>
-  <si>
-    <t>0.602+/-0.011</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.665+/-0.006</t>
-  </si>
-  <si>
-    <t>0.629+/-0.017</t>
-  </si>
-  <si>
-    <t>31.006+/-2.153</t>
+    <t>51.433+/-1.921</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1392,31 +1677,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1424,31 +1709,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1456,31 +1741,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1488,31 +1773,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1520,31 +1805,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1552,31 +1837,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1584,31 +1869,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1616,31 +1901,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1648,31 +1933,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1680,31 +1965,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
         <v>102</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2095,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1754,31 +2135,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1786,31 +2167,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1818,31 +2199,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1850,31 +2231,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1882,31 +2263,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1914,31 +2295,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1946,31 +2327,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1978,31 +2359,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2010,31 +2391,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2042,31 +2423,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" t="s">
+        <v>210</v>
+      </c>
+      <c r="J11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" t="s">
         <v>149</v>
       </c>
-      <c r="H11" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J11" t="s">
-        <v>179</v>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2076,7 +2553,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,31 +2593,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="I2" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="J2" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2148,31 +2625,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="I3" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2180,31 +2657,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2212,31 +2689,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="H5" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="I5" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2244,31 +2721,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="I6" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="J6" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2276,31 +2753,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="I7" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2308,31 +2785,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="I8" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="J8" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2340,31 +2817,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="H9" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="I9" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="J9" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2372,31 +2849,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="H10" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="J10" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2404,31 +2881,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="H11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>235</v>
       </c>
-      <c r="I11" t="s">
-        <v>245</v>
-      </c>
-      <c r="J11" t="s">
-        <v>255</v>
+      <c r="D13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>298</v>
+      </c>
+      <c r="I13" t="s">
+        <v>311</v>
+      </c>
+      <c r="J13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" t="s">
+        <v>299</v>
+      </c>
+      <c r="I14" t="s">
+        <v>312</v>
+      </c>
+      <c r="J14" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2438,7 +3011,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2478,31 +3051,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="F2" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="I2" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2510,31 +3083,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="J3" t="s">
-        <v>318</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2542,31 +3115,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>265</v>
       </c>
       <c r="H4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" t="s">
+        <v>399</v>
+      </c>
+      <c r="J4" t="s">
         <v>302</v>
-      </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2574,31 +3147,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="F5" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="I5" t="s">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="J5" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2606,31 +3179,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>389</v>
       </c>
       <c r="I6" t="s">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2638,31 +3211,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>366</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
+        <v>377</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="I7" t="s">
-        <v>313</v>
+        <v>402</v>
       </c>
       <c r="J7" t="s">
-        <v>322</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2670,31 +3243,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
       <c r="G8" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="H8" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="I8" t="s">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2702,31 +3275,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="G9" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="H9" t="s">
-        <v>307</v>
+        <v>392</v>
       </c>
       <c r="I9" t="s">
-        <v>315</v>
+        <v>404</v>
       </c>
       <c r="J9" t="s">
-        <v>324</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2734,31 +3307,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>356</v>
       </c>
       <c r="F10" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>405</v>
       </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2766,31 +3339,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>344</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>370</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="H11" t="s">
-        <v>308</v>
+        <v>393</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="J11" t="s">
-        <v>325</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" t="s">
+        <v>407</v>
+      </c>
+      <c r="J12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G13" t="s">
+        <v>383</v>
+      </c>
+      <c r="H13" t="s">
+        <v>395</v>
+      </c>
+      <c r="I13" t="s">
+        <v>298</v>
+      </c>
+      <c r="J13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" t="s">
+        <v>408</v>
+      </c>
+      <c r="J14" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
